--- a/setting.xlsx
+++ b/setting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="cartype" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t xml:space="preserve">分组名称</t>
   </si>
@@ -99,38 +99,6 @@
   </si>
   <si>
     <t xml:space="preserve">S+Niche</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">空白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">大区名称</t>
@@ -419,13 +387,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -600,14 +571,6 @@
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -634,37 +597,34 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>5</v>
@@ -672,15 +632,15 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>15</v>
@@ -688,10 +648,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
